--- a/Evaluation/eval003/sub1044/Classifcation Report.xlsx
+++ b/Evaluation/eval003/sub1044/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.898989898989899</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8811881188118812</v>
+        <v>0.900990099009901</v>
       </c>
       <c r="D2" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.883495145631068</v>
+        <v>0.9029126213592233</v>
       </c>
       <c r="C3" t="n">
-        <v>0.900990099009901</v>
+        <v>0.9207920792079208</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8921568627450982</v>
+        <v>0.911764705882353</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -438,16 +438,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.9108910891089109</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.9108910891089109</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.9108910891089109</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.9108910891089109</v>
       </c>
     </row>
     <row r="5">
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8912425223104835</v>
+        <v>0.9110522702755712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.9108910891089109</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8910784313725491</v>
+        <v>0.9108823529411765</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8912425223104835</v>
+        <v>0.9110522702755713</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.9108910891089109</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8910784313725491</v>
+        <v>0.9108823529411765</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
